--- a/2-1试验数据/2第二批Q890角焊缝试验201901/承载能力与变形能力.xlsx
+++ b/2-1试验数据/2第二批Q890角焊缝试验201901/承载能力与变形能力.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1毕业课题\#Graduate-thesis\2-1试验数据\2第二批Q890角焊缝试验201901\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD76E78F-2D3E-4474-BA23-EFF961D056F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF5BAD7-B129-40BF-9794-3971864F48BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="851" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -906,19 +906,25 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -928,12 +934,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -21631,16 +21631,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>432867</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152080</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>994842</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>113980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1344625</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152079</xdr:rowOff>
+      <xdr:colOff>877900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>113979</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24886,7 +24886,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="83" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="82" t="s">
@@ -24921,7 +24921,7 @@
       <c r="R1" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="V1" s="81" t="s">
+      <c r="V1" s="83" t="s">
         <v>77</v>
       </c>
       <c r="W1" s="82" t="s">
@@ -24943,26 +24943,26 @@
         <v>52</v>
       </c>
       <c r="AC1" s="21"/>
-      <c r="AD1" s="83" t="s">
+      <c r="AD1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="83" t="s">
+      <c r="AE1" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="83" t="s">
+      <c r="AF1" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83" t="s">
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
       <c r="AP1" s="82" t="s">
         <v>51</v>
       </c>
@@ -24971,7 +24971,7 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="B2" s="81"/>
+      <c r="B2" s="83"/>
       <c r="C2" s="82"/>
       <c r="D2" s="82"/>
       <c r="E2" s="5" t="s">
@@ -25008,7 +25008,7 @@
       <c r="P2" s="82"/>
       <c r="Q2" s="82"/>
       <c r="R2" s="85"/>
-      <c r="V2" s="81"/>
+      <c r="V2" s="83"/>
       <c r="W2" s="82"/>
       <c r="X2" s="82"/>
       <c r="Y2" s="82"/>
@@ -25016,8 +25016,8 @@
       <c r="AA2" s="82"/>
       <c r="AB2" s="82"/>
       <c r="AC2" s="21"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
       <c r="AF2" s="33" t="s">
         <v>57</v>
       </c>
@@ -28898,11 +28898,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AP1:AP2"/>
-    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="V1:V2"/>
@@ -28915,11 +28915,11 @@
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="R1:R2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AQ1:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28966,90 +28966,90 @@
   <sheetData>
     <row r="1" spans="1:31" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="88" t="s">
         <v>67</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="L1" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="M1" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="N1" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="O1" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="88" t="s">
+      <c r="R1" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="86" t="s">
+      <c r="S1" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="86" t="s">
+      <c r="Y1" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" s="86" t="s">
+      <c r="Z1" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" s="89" t="s">
+      <c r="AA1" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" s="89" t="s">
+      <c r="AB1" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="89" t="s">
+      <c r="AC1" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="89" t="s">
+      <c r="AD1" s="86" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
       <c r="Q2" s="16"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="86"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="88"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="X2" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
@@ -32013,12 +32013,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -32031,6 +32025,12 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32083,25 +32083,25 @@
   <sheetData>
     <row r="1" spans="1:40" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="57"/>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="88" t="s">
         <v>115</v>
       </c>
       <c r="I1" s="56">
@@ -32129,61 +32129,61 @@
         <v>4</v>
       </c>
       <c r="Q1" s="55"/>
-      <c r="R1" s="89" t="s">
+      <c r="R1" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="89" t="s">
+      <c r="S1" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="89" t="s">
+      <c r="T1" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="U1" s="89" t="s">
+      <c r="U1" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="89" t="s">
+      <c r="V1" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="89" t="s">
+      <c r="W1" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="89" t="s">
+      <c r="X1" s="86" t="s">
         <v>85</v>
       </c>
       <c r="AA1" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="89" t="s">
+      <c r="AB1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="AH1" s="89" t="s">
+      <c r="AH1" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="AI1" s="89" t="s">
+      <c r="AI1" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="AJ1" s="89" t="s">
+      <c r="AJ1" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="AK1" s="89" t="s">
+      <c r="AK1" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="AL1" s="89" t="s">
+      <c r="AL1" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="AM1" s="89" t="s">
+      <c r="AM1" s="86" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
       <c r="I2" s="56"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -32192,27 +32192,27 @@
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
       <c r="Q2" s="68"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
       <c r="Z2" s="16"/>
       <c r="AA2" s="92"/>
-      <c r="AB2" s="90"/>
+      <c r="AB2" s="87"/>
       <c r="AD2" s="23"/>
       <c r="AE2" s="23"/>
       <c r="AG2" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="90"/>
-      <c r="AK2" s="90"/>
-      <c r="AL2" s="90"/>
-      <c r="AM2" s="90"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
@@ -35807,6 +35807,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="AM1:AM2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
@@ -35819,16 +35829,6 @@
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36045,7 +36045,7 @@
   <dimension ref="A1:BA57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36089,28 +36089,28 @@
     <row r="1" spans="1:53" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="57"/>
       <c r="B1" s="57"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="L1" s="88" t="s">
         <v>115</v>
       </c>
       <c r="M1" s="56">
@@ -36149,25 +36149,25 @@
       <c r="X1" s="56">
         <v>4</v>
       </c>
-      <c r="Z1" s="86" t="s">
+      <c r="Z1" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="86" t="s">
+      <c r="AA1" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="86" t="s">
+      <c r="AB1" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="AC1" s="86" t="s">
+      <c r="AC1" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="86" t="s">
+      <c r="AD1" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="AE1" s="86" t="s">
+      <c r="AE1" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="AF1" s="86" t="s">
+      <c r="AF1" s="88" t="s">
         <v>85</v>
       </c>
       <c r="AH1" s="22"/>
@@ -36183,44 +36183,44 @@
       <c r="AL1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="AN1" s="88" t="s">
+      <c r="AN1" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="AO1" s="86" t="s">
+      <c r="AO1" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="AU1" s="86" t="s">
+      <c r="AU1" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="AV1" s="86" t="s">
+      <c r="AV1" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="AW1" s="86" t="s">
+      <c r="AW1" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="AX1" s="86" t="s">
+      <c r="AX1" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="AY1" s="86" t="s">
+      <c r="AY1" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="AZ1" s="86" t="s">
+      <c r="AZ1" s="88" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="22" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
       <c r="H2" s="56"/>
-      <c r="I2" s="86"/>
+      <c r="I2" s="88"/>
       <c r="J2" s="56"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
       <c r="M2" s="56"/>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
@@ -36232,13 +36232,13 @@
       <c r="V2" s="28"/>
       <c r="W2" s="28"/>
       <c r="X2" s="28"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
       <c r="AG2" s="56"/>
       <c r="AH2" s="28">
         <v>0</v>
@@ -36260,19 +36260,19 @@
         <v>1</v>
       </c>
       <c r="AM2" s="16"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="86"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="88"/>
       <c r="AQ2" s="23"/>
       <c r="AR2" s="23"/>
       <c r="AT2" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AU2" s="86"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="86"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="88"/>
+      <c r="AZ2" s="88"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
@@ -42176,6 +42176,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="AW1:AW2"/>
     <mergeCell ref="AX1:AX2"/>
     <mergeCell ref="AY1:AY2"/>
@@ -42192,13 +42199,6 @@
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42434,13 +42434,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="88" t="s">
         <v>67</v>
       </c>
       <c r="E1" s="56">
@@ -42455,22 +42455,22 @@
       <c r="H1" s="56">
         <v>4</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="87" t="s">
+      <c r="O1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="88" t="s">
+      <c r="P1" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="86" t="s">
+      <c r="Q1" s="88" t="s">
         <v>67</v>
       </c>
       <c r="R1" s="56">
@@ -42485,34 +42485,34 @@
       <c r="U1" s="56">
         <v>4</v>
       </c>
-      <c r="V1" s="86" t="s">
+      <c r="V1" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="W1" s="86" t="s">
+      <c r="W1" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="86" t="s">
+      <c r="X1" s="88" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B2" s="87"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="86"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="22"/>
       <c r="H2"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="86"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="88"/>
       <c r="R2" s="22"/>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
@@ -43818,11 +43818,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="K1:K2"/>
@@ -43830,6 +43825,11 @@
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="V1:V2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2-1试验数据/2第二批Q890角焊缝试验201901/承载能力与变形能力.xlsx
+++ b/2-1试验数据/2第二批Q890角焊缝试验201901/承载能力与变形能力.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1毕业课题\#Graduate-thesis\2-1试验数据\2第二批Q890角焊缝试验201901\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF5BAD7-B129-40BF-9794-3971864F48BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E908F872-5039-4702-B05A-4B2577432110}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="851" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="675" windowWidth="21090" windowHeight="11280" tabRatio="851" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="承载能力与变形能力" sheetId="1" r:id="rId1"/>
@@ -10989,10 +10989,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>预测承载力!$D$3:$D$47</c:f>
+              <c:f>预测承载力!$D$3:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -11127,6 +11127,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1.6556823169329185</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12341,10 +12344,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>预测承载力!$D$3:$D$47</c:f>
+              <c:f>预测承载力!$D$3:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -12479,6 +12482,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1.6556823169329185</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21669,16 +21675,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>309843</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>681318</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24852,7 +24858,7 @@
   <dimension ref="A1:AQ59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
@@ -28932,10 +28938,10 @@
   <dimension ref="A1:AE58"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I51" sqref="I51"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A39:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36044,8 +36050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E41829-444E-4B6C-B1FF-F9660049D654}">
   <dimension ref="A1:BA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -42415,7 +42421,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -42429,7 +42435,7 @@
     <col min="7" max="7" width="12.375" style="28" customWidth="1"/>
     <col min="8" max="8" width="11.375" style="28" customWidth="1"/>
     <col min="9" max="9" width="9" style="28"/>
-    <col min="10" max="10" width="11.5" style="28" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="28" customWidth="1"/>
     <col min="11" max="11" width="10.75" style="28" customWidth="1"/>
   </cols>
   <sheetData>
@@ -44046,7 +44052,7 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection sqref="A1:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
